--- a/revA/doc/mtdc-revA-bom.xlsx
+++ b/revA/doc/mtdc-revA-bom.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\mtdc-hw\revA\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8F2F94B2-82AE-47F4-A985-1A05CFF57D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1A2A0-B3F1-4CFE-8A94-D26E02CE8753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magnetotorqer-drive-board" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="392">
   <si>
     <t>Item</t>
   </si>
@@ -1181,12 +1194,27 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>RCWE0805R300FKEA</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/20019/rcwe.pdf</t>
+  </si>
+  <si>
+    <t>RES 0.3 OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>RCWE0805R100FKEA</t>
+  </si>
+  <si>
+    <t>RES 0.1 OHM 1% 1/4W 0805</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1735,20 +1763,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K72" totalsRowCount="1">
-  <autoFilter ref="A1:K71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K72" totalsRowCount="1">
+  <autoFilter ref="A1:K71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Qty" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="Reference(s)" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="4" name="Value"/>
-    <tableColumn id="6" name="DNP"/>
-    <tableColumn id="7" name="Description"/>
-    <tableColumn id="8" name="Manufacturer"/>
-    <tableColumn id="9" name="Mfr. Part No"/>
-    <tableColumn id="10" name="LibPart"/>
-    <tableColumn id="11" name="Footprint"/>
-    <tableColumn id="12" name="Datasheet" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qty" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reference(s)" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DNP"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Manufacturer"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mfr. Part No"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="LibPart"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Footprint"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Datasheet" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2050,11 +2078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,6 +3727,15 @@
       <c r="D51" t="s">
         <v>263</v>
       </c>
+      <c r="F51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" t="s">
+        <v>387</v>
+      </c>
       <c r="I51" t="s">
         <v>202</v>
       </c>
@@ -3706,7 +3743,7 @@
         <v>264</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3757,6 +3794,15 @@
       <c r="D53" t="s">
         <v>267</v>
       </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" t="s">
+        <v>390</v>
+      </c>
       <c r="I53" t="s">
         <v>202</v>
       </c>
@@ -3764,7 +3810,7 @@
         <v>264</v>
       </c>
       <c r="K53" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">

--- a/revA/doc/mtdc-revA-bom.xlsx
+++ b/revA/doc/mtdc-revA-bom.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\mtdc-hw\revA\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1A2A0-B3F1-4CFE-8A94-D26E02CE8753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213E6F5E-93C9-4B91-9774-0E9E04CDE268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magnetotorqer-drive-board" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="393">
   <si>
     <t>Item</t>
   </si>
@@ -509,9 +509,6 @@
     <t>Connector_PinHeader_2.54mm:PinHeader_2x03_P2.54mm_Vertical_SMD</t>
   </si>
   <si>
-    <t>TSM-118-01-T-DV</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
@@ -1209,6 +1206,12 @@
   </si>
   <si>
     <t>RES 0.1 OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>TSM-126-02-L-DV-P-TR</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD 52POS 2.54MM</t>
   </si>
 </sst>
 </file>
@@ -2081,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,13 +2957,13 @@
         <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
         <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="I27" t="s">
         <v>156</v>
@@ -2980,28 +2983,28 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
         <v>159</v>
       </c>
-      <c r="D28" t="s">
-        <v>160</v>
-      </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
         <v>96</v>
       </c>
       <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
         <v>160</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>161</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>162</v>
-      </c>
-      <c r="K28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3012,28 +3015,28 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
         <v>165</v>
       </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
         <v>167</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>168</v>
-      </c>
-      <c r="K29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,28 +3047,28 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
         <v>172</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" t="s">
         <v>173</v>
       </c>
-      <c r="F30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>174</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>175</v>
-      </c>
-      <c r="K30" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,28 +3079,28 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" t="s">
         <v>180</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" t="s">
         <v>181</v>
       </c>
-      <c r="F31" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" t="s">
-        <v>181</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>182</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>183</v>
-      </c>
-      <c r="K31" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3108,28 +3111,28 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
         <v>187</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" t="s">
         <v>188</v>
       </c>
-      <c r="F32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>189</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>190</v>
-      </c>
-      <c r="K32" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,28 +3143,28 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="D33" t="s">
-        <v>195</v>
-      </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G33" t="s">
         <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I33" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" t="s">
         <v>196</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>197</v>
-      </c>
-      <c r="K33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3172,28 +3175,28 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" t="s">
         <v>204</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>205</v>
       </c>
-      <c r="H34" t="s">
-        <v>206</v>
-      </c>
       <c r="I34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J34" t="s">
         <v>101</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3204,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3213,22 +3216,22 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" t="s">
         <v>204</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>205</v>
       </c>
-      <c r="H35" t="s">
-        <v>206</v>
-      </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J35" t="s">
         <v>101</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3239,28 +3242,28 @@
         <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
         <v>208</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>209</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
         <v>210</v>
       </c>
-      <c r="G36" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" t="s">
-        <v>211</v>
-      </c>
       <c r="I36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J36" t="s">
         <v>101</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3271,28 +3274,28 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37">
         <v>220</v>
       </c>
       <c r="F37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" t="s">
         <v>213</v>
       </c>
-      <c r="G37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" t="s">
-        <v>214</v>
-      </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
         <v>101</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3303,28 +3306,28 @@
         <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
         <v>215</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>216</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" t="s">
         <v>217</v>
       </c>
-      <c r="G38" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" t="s">
-        <v>218</v>
-      </c>
       <c r="I38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s">
         <v>101</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3335,28 +3338,28 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
         <v>141</v>
       </c>
       <c r="F39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" t="s">
         <v>220</v>
       </c>
-      <c r="G39" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" t="s">
-        <v>221</v>
-      </c>
       <c r="I39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J39" t="s">
         <v>101</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3367,28 +3370,28 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" t="s">
         <v>222</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>223</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" t="s">
         <v>224</v>
       </c>
-      <c r="G40" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" t="s">
-        <v>225</v>
-      </c>
       <c r="I40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J40" t="s">
         <v>101</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,28 +3402,28 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" t="s">
         <v>226</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>227</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" t="s">
         <v>228</v>
       </c>
-      <c r="G41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" t="s">
-        <v>229</v>
-      </c>
       <c r="I41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J41" t="s">
         <v>101</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3431,28 +3434,28 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
         <v>230</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>231</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" t="s">
         <v>232</v>
       </c>
-      <c r="G42" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" t="s">
-        <v>233</v>
-      </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J42" t="s">
         <v>101</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3463,28 +3466,28 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" t="s">
         <v>234</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>235</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" t="s">
         <v>236</v>
       </c>
-      <c r="G43" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" t="s">
-        <v>237</v>
-      </c>
       <c r="I43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J43" t="s">
         <v>101</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3495,28 +3498,28 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" t="s">
         <v>238</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>239</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" t="s">
         <v>240</v>
       </c>
-      <c r="G44" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" t="s">
-        <v>241</v>
-      </c>
       <c r="I44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J44" t="s">
         <v>101</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3527,28 +3530,28 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" t="s">
         <v>242</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" t="s">
+        <v>245</v>
+      </c>
+      <c r="I45" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" t="s">
         <v>243</v>
       </c>
-      <c r="F45" t="s">
-        <v>245</v>
-      </c>
-      <c r="G45" t="s">
-        <v>205</v>
-      </c>
-      <c r="H45" t="s">
-        <v>246</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>202</v>
-      </c>
-      <c r="J45" t="s">
-        <v>244</v>
-      </c>
-      <c r="K45" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,28 +3562,28 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" t="s">
         <v>141</v>
       </c>
       <c r="F46" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" t="s">
         <v>248</v>
       </c>
-      <c r="G46" t="s">
-        <v>205</v>
-      </c>
-      <c r="H46" t="s">
-        <v>249</v>
-      </c>
       <c r="I46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46" t="s">
+        <v>243</v>
+      </c>
+      <c r="K46" t="s">
         <v>202</v>
-      </c>
-      <c r="J46" t="s">
-        <v>244</v>
-      </c>
-      <c r="K46" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3591,28 +3594,28 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D47">
         <v>330</v>
       </c>
       <c r="F47" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" t="s">
         <v>251</v>
       </c>
-      <c r="G47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H47" t="s">
-        <v>252</v>
-      </c>
       <c r="I47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J47" t="s">
         <v>101</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3623,28 +3626,28 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
         <v>253</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>254</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" t="s">
         <v>255</v>
       </c>
-      <c r="G48" t="s">
-        <v>205</v>
-      </c>
-      <c r="H48" t="s">
-        <v>256</v>
-      </c>
       <c r="I48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J48" t="s">
         <v>101</v>
       </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3655,28 +3658,28 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" t="s">
         <v>257</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>258</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" t="s">
         <v>259</v>
       </c>
-      <c r="G49" t="s">
-        <v>205</v>
-      </c>
-      <c r="H49" t="s">
-        <v>260</v>
-      </c>
       <c r="I49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J49" t="s">
         <v>101</v>
       </c>
       <c r="K49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3687,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -3696,22 +3699,22 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" t="s">
         <v>220</v>
       </c>
-      <c r="G50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H50" t="s">
-        <v>221</v>
-      </c>
       <c r="I50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J50" t="s">
         <v>101</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,28 +3725,28 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" t="s">
         <v>262</v>
       </c>
-      <c r="D51" t="s">
-        <v>263</v>
-      </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
         <v>116</v>
       </c>
       <c r="H51" t="s">
+        <v>386</v>
+      </c>
+      <c r="I51" t="s">
+        <v>201</v>
+      </c>
+      <c r="J51" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" t="s">
         <v>387</v>
-      </c>
-      <c r="I51" t="s">
-        <v>202</v>
-      </c>
-      <c r="J51" t="s">
-        <v>264</v>
-      </c>
-      <c r="K51" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3754,31 +3757,31 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" t="s">
+        <v>204</v>
+      </c>
+      <c r="H52" t="s">
         <v>210</v>
       </c>
-      <c r="G52" t="s">
-        <v>205</v>
-      </c>
-      <c r="H52" t="s">
-        <v>211</v>
-      </c>
       <c r="I52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J52" t="s">
         <v>101</v>
       </c>
       <c r="K52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3789,28 +3792,28 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
         <v>266</v>
       </c>
-      <c r="D53" t="s">
-        <v>267</v>
-      </c>
       <c r="F53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G53" t="s">
         <v>116</v>
       </c>
       <c r="H53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3821,28 +3824,28 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" t="s">
         <v>268</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" t="s">
+        <v>273</v>
+      </c>
+      <c r="H54" t="s">
+        <v>268</v>
+      </c>
+      <c r="I54" t="s">
         <v>269</v>
       </c>
-      <c r="F54" t="s">
-        <v>273</v>
-      </c>
-      <c r="G54" t="s">
-        <v>274</v>
-      </c>
-      <c r="H54" t="s">
-        <v>269</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>270</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>271</v>
-      </c>
-      <c r="K54" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3853,28 +3856,28 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" t="s">
         <v>275</v>
       </c>
-      <c r="D55" t="s">
-        <v>276</v>
-      </c>
       <c r="F55" t="s">
+        <v>279</v>
+      </c>
+      <c r="G55" t="s">
         <v>280</v>
-      </c>
-      <c r="G55" t="s">
-        <v>281</v>
       </c>
       <c r="H55">
         <v>5027</v>
       </c>
       <c r="I55" t="s">
+        <v>276</v>
+      </c>
+      <c r="J55" t="s">
         <v>277</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>278</v>
-      </c>
-      <c r="K55" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3885,28 +3888,28 @@
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H56">
         <v>5119</v>
       </c>
       <c r="I56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J56" t="s">
+        <v>282</v>
+      </c>
+      <c r="K56" t="s">
         <v>283</v>
-      </c>
-      <c r="K56" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3917,28 +3920,28 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" t="s">
         <v>286</v>
       </c>
-      <c r="D57" t="s">
-        <v>287</v>
-      </c>
       <c r="F57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G57" t="s">
         <v>67</v>
       </c>
       <c r="H57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I57" t="s">
+        <v>287</v>
+      </c>
+      <c r="J57" t="s">
         <v>288</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>289</v>
-      </c>
-      <c r="K57" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3949,28 +3952,28 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" t="s">
         <v>293</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" t="s">
+        <v>298</v>
+      </c>
+      <c r="I58" t="s">
         <v>294</v>
       </c>
-      <c r="F58" t="s">
-        <v>297</v>
-      </c>
-      <c r="G58" t="s">
-        <v>298</v>
-      </c>
-      <c r="H58" t="s">
-        <v>299</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
+        <v>288</v>
+      </c>
+      <c r="K58" t="s">
         <v>295</v>
-      </c>
-      <c r="J58" t="s">
-        <v>289</v>
-      </c>
-      <c r="K58" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3981,28 +3984,28 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" t="s">
         <v>300</v>
       </c>
-      <c r="D59" t="s">
-        <v>301</v>
-      </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" t="s">
         <v>74</v>
       </c>
       <c r="H59" t="s">
+        <v>300</v>
+      </c>
+      <c r="I59" t="s">
         <v>301</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>302</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>303</v>
-      </c>
-      <c r="K59" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4013,28 +4016,28 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" t="s">
         <v>306</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" t="s">
+        <v>311</v>
+      </c>
+      <c r="I60" t="s">
         <v>307</v>
       </c>
-      <c r="F60" t="s">
-        <v>311</v>
-      </c>
-      <c r="G60" t="s">
-        <v>298</v>
-      </c>
-      <c r="H60" t="s">
-        <v>312</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>308</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>309</v>
-      </c>
-      <c r="K60" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4045,28 +4048,28 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" t="s">
         <v>313</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>314</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
         <v>315</v>
       </c>
-      <c r="G61" t="s">
-        <v>298</v>
-      </c>
-      <c r="H61" t="s">
-        <v>316</v>
-      </c>
       <c r="I61" t="s">
+        <v>307</v>
+      </c>
+      <c r="J61" t="s">
         <v>308</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>309</v>
-      </c>
-      <c r="K61" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4077,28 +4080,28 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" t="s">
         <v>317</v>
       </c>
-      <c r="D62" t="s">
-        <v>318</v>
-      </c>
       <c r="F62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
       </c>
       <c r="H62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I62" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62" t="s">
+        <v>174</v>
+      </c>
+      <c r="K62" t="s">
         <v>319</v>
-      </c>
-      <c r="J62" t="s">
-        <v>175</v>
-      </c>
-      <c r="K62" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4109,28 +4112,28 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" t="s">
         <v>323</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" t="s">
+        <v>323</v>
+      </c>
+      <c r="I63" t="s">
         <v>324</v>
       </c>
-      <c r="F63" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" t="s">
-        <v>329</v>
-      </c>
-      <c r="H63" t="s">
-        <v>324</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>325</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>326</v>
-      </c>
-      <c r="K63" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4141,28 +4144,28 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" t="s">
         <v>330</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>334</v>
+      </c>
+      <c r="G64" t="s">
+        <v>335</v>
+      </c>
+      <c r="H64" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" t="s">
         <v>331</v>
       </c>
-      <c r="F64" t="s">
-        <v>335</v>
-      </c>
-      <c r="G64" t="s">
-        <v>336</v>
-      </c>
-      <c r="H64" t="s">
-        <v>331</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>332</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>333</v>
-      </c>
-      <c r="K64" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4173,28 +4176,28 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" t="s">
         <v>337</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>341</v>
+      </c>
+      <c r="G65" t="s">
+        <v>297</v>
+      </c>
+      <c r="H65" t="s">
+        <v>337</v>
+      </c>
+      <c r="I65" t="s">
         <v>338</v>
       </c>
-      <c r="F65" t="s">
-        <v>342</v>
-      </c>
-      <c r="G65" t="s">
-        <v>298</v>
-      </c>
-      <c r="H65" t="s">
-        <v>338</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>339</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>340</v>
-      </c>
-      <c r="K65" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4205,28 +4208,28 @@
         <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" t="s">
         <v>343</v>
       </c>
-      <c r="D66" t="s">
-        <v>344</v>
-      </c>
       <c r="F66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G66" t="s">
         <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I66" t="s">
+        <v>344</v>
+      </c>
+      <c r="J66" t="s">
         <v>345</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>346</v>
-      </c>
-      <c r="K66" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,31 +4240,31 @@
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D67" t="s">
         <v>350</v>
-      </c>
-      <c r="D67" t="s">
-        <v>351</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67" t="s">
         <v>355</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>356</v>
       </c>
-      <c r="H67" t="s">
-        <v>357</v>
-      </c>
       <c r="I67" t="s">
+        <v>351</v>
+      </c>
+      <c r="J67" t="s">
         <v>352</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>353</v>
-      </c>
-      <c r="K67" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4272,28 +4275,28 @@
         <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D68" t="s">
         <v>358</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" t="s">
+        <v>355</v>
+      </c>
+      <c r="H68" t="s">
+        <v>363</v>
+      </c>
+      <c r="I68" t="s">
         <v>359</v>
       </c>
-      <c r="F68" t="s">
-        <v>363</v>
-      </c>
-      <c r="G68" t="s">
-        <v>356</v>
-      </c>
-      <c r="H68" t="s">
-        <v>364</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>360</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>361</v>
-      </c>
-      <c r="K68" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4304,28 +4307,28 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D69" t="s">
         <v>365</v>
       </c>
-      <c r="D69" t="s">
-        <v>366</v>
-      </c>
       <c r="F69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G69" t="s">
         <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I69" t="s">
+        <v>366</v>
+      </c>
+      <c r="J69" t="s">
         <v>367</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>368</v>
-      </c>
-      <c r="K69" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4336,28 +4339,28 @@
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D70" t="s">
         <v>372</v>
       </c>
-      <c r="D70" t="s">
-        <v>373</v>
-      </c>
       <c r="F70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G70" t="s">
         <v>67</v>
       </c>
       <c r="H70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I70" t="s">
+        <v>373</v>
+      </c>
+      <c r="J70" t="s">
+        <v>167</v>
+      </c>
+      <c r="K70" t="s">
         <v>374</v>
-      </c>
-      <c r="J70" t="s">
-        <v>168</v>
-      </c>
-      <c r="K70" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4368,33 +4371,33 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D71" t="s">
         <v>378</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>382</v>
+      </c>
+      <c r="G71" t="s">
+        <v>383</v>
+      </c>
+      <c r="H71" t="s">
+        <v>384</v>
+      </c>
+      <c r="I71" t="s">
         <v>379</v>
       </c>
-      <c r="F71" t="s">
-        <v>383</v>
-      </c>
-      <c r="G71" t="s">
-        <v>384</v>
-      </c>
-      <c r="H71" t="s">
-        <v>385</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>380</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>381</v>
-      </c>
-      <c r="K71" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72">
         <f>SUBTOTAL(109,Table1[Qty])</f>
